--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Plan</t>
   </si>
@@ -196,13 +196,19 @@
     <t>Implémenter update_image</t>
   </si>
   <si>
-    <t>Implémenter delete_image</t>
-  </si>
-  <si>
     <t>Preparation du travail</t>
   </si>
   <si>
     <t>Réaliser un script de test général</t>
+  </si>
+  <si>
+    <t>Configurer une machine virtuelle proprement</t>
+  </si>
+  <si>
+    <t>Activité XX</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,233 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1214,10 +1446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z31"/>
+  <dimension ref="B2:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1559,7 @@
     </row>
     <row r="7" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -1633,145 +1865,145 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="20" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L24" s="3">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M24" s="3">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N24" s="3">
         <v>6</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O24" s="3">
         <v>7</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P24" s="3">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q24" s="3">
         <v>9</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R24" s="3">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S24" s="3">
         <v>11</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T24" s="3">
         <v>12</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U24" s="3">
         <v>13</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V24" s="3">
         <v>14</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W24" s="3">
         <v>15</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X24" s="3">
         <v>16</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y24" s="3">
         <v>17</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z24" s="3">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="16">
-        <v>2</v>
-      </c>
-      <c r="D23" s="16">
-        <v>15</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16">
-        <v>2</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="16">
         <v>4</v>
@@ -1779,246 +2011,346 @@
       <c r="D26" s="16">
         <v>2</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
       <c r="G26" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="16">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+    <row r="30" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L31" s="3">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M31" s="3">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N31" s="3">
         <v>6</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O31" s="3">
         <v>7</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P31" s="3">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q31" s="3">
         <v>9</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R31" s="3">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S31" s="3">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T31" s="3">
         <v>12</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U31" s="3">
         <v>13</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V31" s="3">
         <v>14</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W31" s="3">
         <v>15</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X31" s="3">
         <v>16</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y31" s="3">
         <v>17</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z31" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="16">
-        <v>2</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16">
         <v>15</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="16">
+    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="16">
         <v>4</v>
       </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="16">
         <v>4</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17">
-        <v>1</v>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I23:Z24 I9:Z19 I26:Z26 I31:Z31">
-    <cfRule type="expression" dxfId="29" priority="53">
+  <conditionalFormatting sqref="I25:Z26 I9:Z18 I28:Z28 I34:Z34 I20:Z21">
+    <cfRule type="expression" dxfId="45" priority="69">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="55">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="56">
+    <cfRule type="expression" dxfId="43" priority="72">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="57">
+    <cfRule type="expression" dxfId="42" priority="73">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="58">
+    <cfRule type="expression" dxfId="41" priority="74">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="59">
+    <cfRule type="expression" dxfId="40" priority="75">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="63">
+    <cfRule type="expression" dxfId="39" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="64">
+    <cfRule type="expression" dxfId="38" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:Z20">
-    <cfRule type="expression" dxfId="21" priority="54">
+  <conditionalFormatting sqref="B22:Z22">
+    <cfRule type="expression" dxfId="37" priority="70">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:Z8">
-    <cfRule type="expression" dxfId="20" priority="60">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:Z22">
-    <cfRule type="expression" dxfId="19" priority="50">
+  <conditionalFormatting sqref="I24:Z24">
+    <cfRule type="expression" dxfId="35" priority="66">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:Z30">
-    <cfRule type="expression" dxfId="18" priority="36">
+  <conditionalFormatting sqref="I32:Z32">
+    <cfRule type="expression" dxfId="34" priority="52">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="33" priority="53">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="38">
+    <cfRule type="expression" dxfId="32" priority="54">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="39">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="40">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="41">
+    <cfRule type="expression" dxfId="29" priority="57">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="42">
+    <cfRule type="expression" dxfId="28" priority="58">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43">
+    <cfRule type="expression" dxfId="27" priority="59">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:Z29">
-    <cfRule type="expression" dxfId="10" priority="35">
+  <conditionalFormatting sqref="I31:Z31">
+    <cfRule type="expression" dxfId="26" priority="51">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:Z25">
-    <cfRule type="expression" dxfId="9" priority="27">
+  <conditionalFormatting sqref="I27:Z27">
+    <cfRule type="expression" dxfId="25" priority="43">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="28">
+    <cfRule type="expression" dxfId="24" priority="44">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="29">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="31">
+    <cfRule type="expression" dxfId="21" priority="47">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="32">
+    <cfRule type="expression" dxfId="20" priority="48">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="33">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="18" priority="50">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:Z27">
-    <cfRule type="expression" dxfId="1" priority="11">
+  <conditionalFormatting sqref="B29:Z29">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:Z32">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="B35:Z35">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:Z19">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:Z33">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Plan</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Réussir à avoir les tests unitaires en vert</t>
+  </si>
+  <si>
+    <t>Implémenter destroy_image</t>
+  </si>
+  <si>
+    <t>Implémenter get_image</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z34"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1862,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2018,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
@@ -2038,162 +2047,222 @@
         <v>2</v>
       </c>
       <c r="G27" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="16">
+        <v>6</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="E28" s="16">
+        <v>6</v>
+      </c>
+      <c r="F28" s="16">
+        <v>3</v>
+      </c>
+      <c r="G28" s="17">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="16">
+        <v>7</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>7</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="32" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L33" s="3">
         <v>4</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M33" s="3">
         <v>5</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N33" s="3">
         <v>6</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O33" s="3">
         <v>7</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P33" s="3">
         <v>8</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q33" s="3">
         <v>9</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R33" s="3">
         <v>10</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S33" s="3">
         <v>11</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T33" s="3">
         <v>12</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U33" s="3">
         <v>13</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V33" s="3">
         <v>14</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W33" s="3">
         <v>15</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X33" s="3">
         <v>16</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y33" s="3">
         <v>17</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z33" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="16">
-        <v>2</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="C34" s="16">
+        <v>2</v>
+      </c>
+      <c r="D34" s="16">
         <v>15</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="16">
-        <v>4</v>
-      </c>
-      <c r="D33" s="16">
-        <v>1</v>
-      </c>
-      <c r="E33" s="16">
-        <v>4</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17">
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="16">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="16">
+        <v>6</v>
+      </c>
+      <c r="D36" s="16">
+        <v>5</v>
+      </c>
+      <c r="E36" s="16">
+        <v>6</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I25:Z26 I9:Z18 I28:Z28 I34:Z34 I20:Z21">
+  <conditionalFormatting sqref="I25:Z26 I9:Z18 I30:Z30 I37:Z37 I20:Z21">
     <cfRule type="expression" dxfId="45" priority="69">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2234,7 +2303,7 @@
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:Z32">
+  <conditionalFormatting sqref="I34:Z34">
     <cfRule type="expression" dxfId="34" priority="52">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2260,12 +2329,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:Z31">
+  <conditionalFormatting sqref="I33:Z33">
     <cfRule type="expression" dxfId="26" priority="51">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:Z27">
+  <conditionalFormatting sqref="I27:Z29">
     <cfRule type="expression" dxfId="25" priority="43">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2291,12 +2360,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:Z29">
+  <conditionalFormatting sqref="B31:Z31">
     <cfRule type="expression" dxfId="17" priority="27">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:Z35">
+  <conditionalFormatting sqref="B38:Z38">
     <cfRule type="expression" dxfId="16" priority="18">
       <formula>TRUE</formula>
     </cfRule>
@@ -2327,7 +2396,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:Z33">
+  <conditionalFormatting sqref="I35:Z36">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1485,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" s="8"/>
       <c r="M2" s="10"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -19,7 +19,7 @@
     <definedName name="PeriodInPlan">project!A$8=MEDIAN(project!A$8,project!$C1,project!$C1+project!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(project!$C1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Plan</t>
   </si>
@@ -196,28 +196,55 @@
     <t>Implémenter update_image</t>
   </si>
   <si>
-    <t>Preparation du travail</t>
-  </si>
-  <si>
     <t>Réaliser un script de test général</t>
   </si>
   <si>
     <t>Configurer une machine virtuelle proprement</t>
   </si>
   <si>
-    <t>Activité XX</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Réussir à avoir les tests unitaires en vert</t>
   </si>
   <si>
     <t>Implémenter destroy_image</t>
   </si>
   <si>
-    <t>Implémenter get_image</t>
+    <t>Implémenter get_image_all</t>
+  </si>
+  <si>
+    <t>Réussir les tests d'intégration</t>
+  </si>
+  <si>
+    <t>Déployer</t>
+  </si>
+  <si>
+    <t>Déployer sur un devstack</t>
+  </si>
+  <si>
+    <t>Déployer sur Grid 5000</t>
+  </si>
+  <si>
+    <t>Se documenter</t>
+  </si>
+  <si>
+    <t>Points généraux</t>
+  </si>
+  <si>
+    <t>Script pour que devstack utilise notre glance</t>
+  </si>
+  <si>
+    <t>Réussir l'intégration de glance dans devstack</t>
+  </si>
+  <si>
+    <t>Faire fonctionner les tests unitaires critiques</t>
+  </si>
+  <si>
+    <t>Rendre ROME fonctionnel</t>
+  </si>
+  <si>
+    <t>S'assurer que glance utilise ROME</t>
+  </si>
+  <si>
+    <t>Réussir la mise à l'échelle avec Grid5000</t>
   </si>
 </sst>
 </file>
@@ -494,7 +521,291 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="66">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1170,7 +1481,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="15"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1455,20 +1766,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z37"/>
+  <dimension ref="B2:Z49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="AV28" sqref="AV28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AJ43" sqref="AJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="2" customWidth="1"/>
     <col min="3" max="6" width="9.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="26" width="3.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="1" customWidth="1"/>
+    <col min="11" max="26" width="3.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.8">
@@ -1485,7 +1798,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K2" s="8"/>
       <c r="M2" s="10"/>
@@ -1568,7 +1881,7 @@
     </row>
     <row r="7" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -1656,16 +1969,16 @@
     </row>
     <row r="9" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -1676,39 +1989,39 @@
     </row>
     <row r="10" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
@@ -1716,39 +2029,39 @@
     </row>
     <row r="12" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
       </c>
       <c r="G12" s="17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
       </c>
       <c r="E13" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
@@ -1756,19 +2069,19 @@
     </row>
     <row r="14" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C14" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="16">
         <v>2</v>
       </c>
       <c r="E14" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
@@ -1776,19 +2089,19 @@
     </row>
     <row r="15" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
       <c r="E15" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
@@ -1796,19 +2109,19 @@
     </row>
     <row r="16" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C16" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="17">
         <v>1</v>
@@ -1816,445 +2129,773 @@
     </row>
     <row r="17" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C17" s="16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="16">
         <v>2</v>
       </c>
       <c r="E17" s="16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F17" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>13</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6</v>
+      </c>
+      <c r="O21" s="3">
+        <v>7</v>
+      </c>
+      <c r="P21" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>9</v>
+      </c>
+      <c r="R21" s="3">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3">
+        <v>12</v>
+      </c>
+      <c r="U21" s="3">
+        <v>13</v>
+      </c>
+      <c r="V21" s="3">
+        <v>14</v>
+      </c>
+      <c r="W21" s="3">
+        <v>15</v>
+      </c>
+      <c r="X21" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="C25" s="16">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="E28" s="16">
+        <v>2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="16">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16">
-        <v>5</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="N32" s="3">
+        <v>6</v>
+      </c>
+      <c r="O32" s="3">
         <v>7</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="P32" s="3">
         <v>8</v>
       </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
-        <v>6</v>
-      </c>
-      <c r="O24" s="3">
-        <v>7</v>
-      </c>
-      <c r="P24" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q32" s="3">
         <v>9</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R32" s="3">
         <v>10</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S32" s="3">
         <v>11</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T32" s="3">
         <v>12</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U32" s="3">
         <v>13</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V32" s="3">
         <v>14</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W32" s="3">
         <v>15</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X32" s="3">
         <v>16</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y32" s="3">
         <v>17</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z32" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="16">
-        <v>2</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C33" s="16">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16">
         <v>15</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="16">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16">
-        <v>2</v>
-      </c>
-      <c r="E26" s="16">
-        <v>4</v>
-      </c>
-      <c r="F26" s="16">
-        <v>2</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="16">
-        <v>4</v>
-      </c>
-      <c r="D27" s="16">
-        <v>2</v>
-      </c>
-      <c r="E27" s="16">
-        <v>4</v>
-      </c>
-      <c r="F27" s="16">
-        <v>2</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="16">
-        <v>6</v>
-      </c>
-      <c r="D28" s="16">
-        <v>2</v>
-      </c>
-      <c r="E28" s="16">
-        <v>6</v>
-      </c>
-      <c r="F28" s="16">
-        <v>3</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16">
-        <v>7</v>
-      </c>
-      <c r="D29" s="16">
-        <v>2</v>
-      </c>
-      <c r="E29" s="16">
-        <v>7</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
-        <v>6</v>
-      </c>
-      <c r="O33" s="3">
-        <v>7</v>
-      </c>
-      <c r="P33" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>9</v>
-      </c>
-      <c r="R33" s="3">
-        <v>10</v>
-      </c>
-      <c r="S33" s="3">
-        <v>11</v>
-      </c>
-      <c r="T33" s="3">
-        <v>12</v>
-      </c>
-      <c r="U33" s="3">
-        <v>13</v>
-      </c>
-      <c r="V33" s="3">
-        <v>14</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="E33" s="16">
+        <v>2</v>
+      </c>
+      <c r="F33" s="16">
         <v>15</v>
       </c>
-      <c r="X33" s="3">
-        <v>16</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>17</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>18</v>
+      <c r="G33" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="16">
-        <v>15</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="16">
+        <v>4</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
       <c r="G34" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="16">
         <v>4</v>
       </c>
       <c r="D35" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="16">
         <v>4</v>
       </c>
       <c r="F35" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="16">
         <v>6</v>
       </c>
       <c r="D36" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="16">
         <v>6</v>
       </c>
       <c r="F36" s="16">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16">
+        <v>7</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16">
+        <v>7</v>
+      </c>
+      <c r="F37" s="16">
+        <v>7</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17">
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>4</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6</v>
+      </c>
+      <c r="O40" s="3">
+        <v>7</v>
+      </c>
+      <c r="P40" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>9</v>
+      </c>
+      <c r="R40" s="3">
+        <v>10</v>
+      </c>
+      <c r="S40" s="3">
+        <v>11</v>
+      </c>
+      <c r="T40" s="3">
+        <v>12</v>
+      </c>
+      <c r="U40" s="3">
+        <v>13</v>
+      </c>
+      <c r="V40" s="3">
+        <v>14</v>
+      </c>
+      <c r="W40" s="3">
+        <v>15</v>
+      </c>
+      <c r="X40" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2</v>
+      </c>
+      <c r="D41" s="16">
+        <v>15</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="16">
+        <v>4</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="16">
+        <v>6</v>
+      </c>
+      <c r="D43" s="16">
+        <v>5</v>
+      </c>
+      <c r="E43" s="16">
+        <v>6</v>
+      </c>
+      <c r="F43" s="16">
+        <v>4</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="16">
+        <v>8</v>
+      </c>
+      <c r="D44" s="16">
+        <v>3</v>
+      </c>
+      <c r="E44" s="16">
+        <v>8</v>
+      </c>
+      <c r="F44" s="16">
+        <v>5</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
+        <v>6</v>
+      </c>
+      <c r="O47" s="3">
+        <v>7</v>
+      </c>
+      <c r="P47" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>9</v>
+      </c>
+      <c r="R47" s="3">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3">
+        <v>11</v>
+      </c>
+      <c r="T47" s="3">
+        <v>12</v>
+      </c>
+      <c r="U47" s="3">
+        <v>13</v>
+      </c>
+      <c r="V47" s="3">
+        <v>14</v>
+      </c>
+      <c r="W47" s="3">
+        <v>15</v>
+      </c>
+      <c r="X47" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="16">
+        <v>8</v>
+      </c>
+      <c r="D48" s="16">
+        <v>3</v>
+      </c>
+      <c r="E48" s="16">
+        <v>8</v>
+      </c>
+      <c r="F48" s="16">
+        <v>5</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="16">
+        <v>12</v>
+      </c>
+      <c r="D49" s="16">
+        <v>2</v>
+      </c>
+      <c r="E49" s="16">
+        <v>15</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2262,164 +2903,236 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I25:Z26 I9:Z18 I30:Z30 I37:Z37 I20:Z21">
-    <cfRule type="expression" dxfId="45" priority="69">
+  <conditionalFormatting sqref="I33:Z34 I22:Z29 I15:Z18 I9:Z11">
+    <cfRule type="expression" dxfId="65" priority="122">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="71">
+    <cfRule type="expression" dxfId="64" priority="124">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="72">
+    <cfRule type="expression" dxfId="63" priority="125">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="73">
+    <cfRule type="expression" dxfId="62" priority="126">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="74">
+    <cfRule type="expression" dxfId="61" priority="127">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="75">
+    <cfRule type="expression" dxfId="60" priority="128">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="79">
+    <cfRule type="expression" dxfId="59" priority="132">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="80">
+    <cfRule type="expression" dxfId="58" priority="133">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:Z22">
-    <cfRule type="expression" dxfId="37" priority="70">
+  <conditionalFormatting sqref="B19:Z19">
+    <cfRule type="expression" dxfId="57" priority="123">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:Z8">
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="56" priority="129">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:Z24">
-    <cfRule type="expression" dxfId="35" priority="66">
+  <conditionalFormatting sqref="I32:Z32">
+    <cfRule type="expression" dxfId="55" priority="119">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:Z34">
-    <cfRule type="expression" dxfId="34" priority="52">
+  <conditionalFormatting sqref="I41:Z41">
+    <cfRule type="expression" dxfId="54" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="53">
+    <cfRule type="expression" dxfId="53" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54">
+    <cfRule type="expression" dxfId="52" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="55">
+    <cfRule type="expression" dxfId="51" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="56">
+    <cfRule type="expression" dxfId="50" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="57">
+    <cfRule type="expression" dxfId="49" priority="110">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="58">
+    <cfRule type="expression" dxfId="48" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="59">
+    <cfRule type="expression" dxfId="47" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:Z33">
-    <cfRule type="expression" dxfId="26" priority="51">
+  <conditionalFormatting sqref="I40:Z40">
+    <cfRule type="expression" dxfId="46" priority="104">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:Z29">
-    <cfRule type="expression" dxfId="25" priority="43">
+  <conditionalFormatting sqref="I35:Z37">
+    <cfRule type="expression" dxfId="45" priority="96">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="44">
+    <cfRule type="expression" dxfId="44" priority="97">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="43" priority="98">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="42" priority="99">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="47">
+    <cfRule type="expression" dxfId="41" priority="100">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="48">
+    <cfRule type="expression" dxfId="40" priority="101">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="49">
+    <cfRule type="expression" dxfId="39" priority="102">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="50">
+    <cfRule type="expression" dxfId="38" priority="103">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:Z31">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:Z38">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="37" priority="80">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:Z19">
-    <cfRule type="expression" dxfId="15" priority="9">
+  <conditionalFormatting sqref="B45:Z45">
+    <cfRule type="expression" dxfId="36" priority="71">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:Z14">
+    <cfRule type="expression" dxfId="35" priority="62">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="34" priority="63">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="33" priority="64">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="31" priority="66">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="30" priority="67">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="29" priority="68">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="28" priority="69">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:Z36">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="I42:Z44">
+    <cfRule type="expression" dxfId="27" priority="54">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="26" priority="55">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="25" priority="56">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="24" priority="57">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="23" priority="58">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="22" priority="59">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="21" priority="60">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="20" priority="61">
       <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:Z48">
+    <cfRule type="expression" dxfId="19" priority="38">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="39">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="40">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="41">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="42">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="43">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="44">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="45">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:Z47">
+    <cfRule type="expression" dxfId="11" priority="37">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:Z49">
+    <cfRule type="expression" dxfId="10" priority="28">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="29">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="30">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="31">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="32">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="33">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="34">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:Z21">
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:Z30">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:Z50">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
